--- a/Probleemstelling/Programma/Klassen.xlsx
+++ b/Probleemstelling/Programma/Klassen.xlsx
@@ -86,19 +86,7 @@
     <t>Expand(Equation equation)</t>
   </si>
   <si>
-    <t>expand()
-PruneRegels.prune(currentLevel)</t>
-  </si>
-  <si>
     <t>Tijd</t>
-  </si>
-  <si>
-    <t>Start()
-TimesUp()</t>
-  </si>
-  <si>
-    <t>int inputCount
-List&lt;Equation&gt; solutionSpace</t>
   </si>
   <si>
     <t>Input</t>
@@ -124,10 +112,23 @@
     - pause()</t>
   </si>
   <si>
-    <t xml:space="preserve">           Start()         TimesUp()</t>
-  </si>
-  <si>
     <t xml:space="preserve">     evaluate()</t>
+  </si>
+  <si>
+    <t>expand(previousLevel)
+PruneRegels.prune(currentLevel)</t>
+  </si>
+  <si>
+    <t>Start()
+TimeIsUp()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">           Start()         TimeIsUp()</t>
+  </si>
+  <si>
+    <t>int inputCount
+List&lt;Equation&gt; solutionSpace
+File Boom</t>
   </si>
 </sst>
 </file>
@@ -403,148 +404,148 @@
   </cellStyleXfs>
   <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1421,104 +1422,104 @@
   <dimension ref="B1:X36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+      <selection activeCell="P3" sqref="P3:S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="27" t="s">
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="29"/>
-      <c r="V2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W2" s="3"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="28"/>
+      <c r="V2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="W2" s="22"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-      <c r="P3" s="15" t="s">
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="23"/>
+      <c r="P3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="23"/>
+      <c r="V3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="W3" s="23"/>
+    </row>
+    <row r="4" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="31"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="30"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="30"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="25"/>
+    </row>
+    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="36"/>
+    </row>
+    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="E6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="30"/>
+      <c r="P6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="17"/>
-      <c r="V3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="W3" s="17"/>
-    </row>
-    <row r="4" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="20"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="23"/>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="E5" s="31"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="32"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="32"/>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="E6" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="20"/>
-      <c r="P6" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="20"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="30"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="20"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="30"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="30"/>
     </row>
     <row r="8" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="23"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="25"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="25"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
@@ -1533,261 +1534,251 @@
         <v>29</v>
       </c>
       <c r="T10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="H12" s="1" t="s">
+      <c r="C12" s="50"/>
+      <c r="D12" s="22"/>
+      <c r="H12" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="3"/>
-      <c r="O12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P12" s="3"/>
-      <c r="S12" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="29"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="22"/>
+      <c r="O12" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" s="22"/>
+      <c r="S12" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="28"/>
     </row>
     <row r="13" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="H13" s="15" t="s">
+      <c r="C13" s="33"/>
+      <c r="D13" s="23"/>
+      <c r="H13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="17"/>
-      <c r="O13" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="P13" s="17"/>
-      <c r="S13" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="37"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="23"/>
+      <c r="O13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" s="23"/>
+      <c r="S13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="8"/>
     </row>
     <row r="14" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="20"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="23"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="42"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="30"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="25"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="11"/>
     </row>
     <row r="15" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="20"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="20"/>
-      <c r="S15" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="T15" s="43"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="43"/>
-      <c r="X15" s="45"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="30"/>
+      <c r="S15" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="14"/>
     </row>
     <row r="16" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="20"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="20"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="39"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="30"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="17"/>
     </row>
     <row r="17" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="23"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="38"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="39"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="25"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="17"/>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="38"/>
-      <c r="X18" s="39"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="17"/>
     </row>
     <row r="19" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="48"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="20"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M20" s="49"/>
-      <c r="N20" s="50"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="5"/>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="M23" s="50"/>
-      <c r="N23" s="50"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
     </row>
     <row r="24" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M24" s="50"/>
-      <c r="N24" s="50"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
     </row>
     <row r="25" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="3"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="22"/>
     </row>
     <row r="26" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="23"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="E27" s="25"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="20"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="30"/>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="E28" s="25"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="20"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="30"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="E29" s="25"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="20"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="30"/>
     </row>
     <row r="30" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E30" s="21"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="23"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="25"/>
     </row>
     <row r="31" spans="2:24" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="M31" s="9"/>
+      <c r="M31" s="1"/>
     </row>
     <row r="32" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="33" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="E33" s="1" t="s">
+      <c r="C33" s="22"/>
+      <c r="E33" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="3"/>
-      <c r="H33" s="1" t="s">
+      <c r="F33" s="22"/>
+      <c r="H33" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I33" s="3"/>
+      <c r="I33" s="22"/>
     </row>
     <row r="34" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="E34" s="4" t="s">
+      <c r="C34" s="41"/>
+      <c r="E34" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="5"/>
-      <c r="H34" s="8" t="s">
+      <c r="F34" s="41"/>
+      <c r="H34" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="I34" s="10"/>
+      <c r="I34" s="45"/>
     </row>
     <row r="35" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="7"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="12"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="43"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="43"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="47"/>
     </row>
     <row r="36" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H36" s="13"/>
-      <c r="I36" s="14"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="S13:X14"/>
-    <mergeCell ref="S15:X19"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="V3:W4"/>
-    <mergeCell ref="S12:X12"/>
-    <mergeCell ref="E6:H8"/>
-    <mergeCell ref="E3:H5"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="P3:S5"/>
-    <mergeCell ref="P6:S8"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="O12:P12"/>
     <mergeCell ref="O13:P14"/>
@@ -1797,13 +1788,23 @@
     <mergeCell ref="E26:G30"/>
     <mergeCell ref="B13:D18"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E2:H2"/>
     <mergeCell ref="E25:G25"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="H13:K17"/>
+    <mergeCell ref="E6:H8"/>
+    <mergeCell ref="E3:H5"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="P3:S5"/>
+    <mergeCell ref="P6:S8"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="S13:X14"/>
+    <mergeCell ref="S15:X19"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="V3:W4"/>
+    <mergeCell ref="S12:X12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Probleemstelling/Programma/Klassen.xlsx
+++ b/Probleemstelling/Programma/Klassen.xlsx
@@ -16,16 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Boom</t>
-  </si>
-  <si>
-    <t>Grammatica</t>
-  </si>
-  <si>
-    <t>Symbool</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Terminal</t>
   </si>
@@ -63,14 +54,6 @@
     <t>Bedenking: Operand is ook een Non Terminal Nee?</t>
   </si>
   <si>
-    <t>PruneRegels</t>
-  </si>
-  <si>
-    <t>int levelCount
-Equation equation = E
-List&lt;List&lt;Equation&gt;&gt; lijstVanLevels</t>
-  </si>
-  <si>
     <t>Expand()</t>
   </si>
   <si>
@@ -84,9 +67,6 @@
   </si>
   <si>
     <t>Expand(Equation equation)</t>
-  </si>
-  <si>
-    <t>Tijd</t>
   </si>
   <si>
     <t>Input</t>
@@ -98,12 +78,6 @@
     <t>firstInputToTerminal()
 nextInputCheckSolutionSpace()
 evaluate()</t>
-  </si>
-  <si>
-    <t>Evalueer</t>
-  </si>
-  <si>
-    <t>Map&lt;String, Map&lt;Double, List&lt;String&gt;&gt;&gt; alreadyCalculated</t>
   </si>
   <si>
     <t>findSolution()
@@ -115,10 +89,6 @@
     <t xml:space="preserve">     evaluate()</t>
   </si>
   <si>
-    <t>expand(previousLevel)
-PruneRegels.prune(currentLevel)</t>
-  </si>
-  <si>
     <t>Start()
 TimeIsUp()</t>
   </si>
@@ -129,6 +99,45 @@
     <t>int inputCount
 List&lt;Equation&gt; solutionSpace
 File Boom</t>
+  </si>
+  <si>
+    <t>int levelCount
+Equation equation = E
+List&lt;List&lt;Equation&gt;&gt; lijstVanLevels (ArrayList)</t>
+  </si>
+  <si>
+    <t>Equation</t>
+  </si>
+  <si>
+    <t>List symbol</t>
+  </si>
+  <si>
+    <t>toString()</t>
+  </si>
+  <si>
+    <t>Map&lt;Equation, Map&lt;Double, List&lt;Equation&gt;&gt;&gt; alreadyCalculated</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>PruneRules</t>
+  </si>
+  <si>
+    <t>Grammar</t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>expand(previousLevel)
+PruneRules.prune(currentLevel)</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Evaluate</t>
   </si>
 </sst>
 </file>
@@ -174,7 +183,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -398,11 +407,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -411,9 +457,102 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -438,9 +577,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -456,95 +592,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,7 +687,7 @@
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
@@ -808,7 +875,7 @@
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
@@ -849,13 +916,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>598714</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>119743</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>598714</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>130628</xdr:rowOff>
@@ -896,13 +963,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>43543</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>174171</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>587829</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>130629</xdr:rowOff>
@@ -943,13 +1010,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>65314</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>10886</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>359229</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>141515</xdr:rowOff>
@@ -990,13 +1057,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>217714</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>10886</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>522514</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>163287</xdr:rowOff>
@@ -1037,13 +1104,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>413657</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>391886</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>141515</xdr:rowOff>
@@ -1084,13 +1151,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>500743</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>43543</xdr:rowOff>
@@ -1104,6 +1171,147 @@
         <a:xfrm flipV="1">
           <a:off x="5486400" y="2906486"/>
           <a:ext cx="5377543" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>174171</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>315686</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3831771" y="4212771"/>
+          <a:ext cx="1970315" cy="272143"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>544286</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>174172</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3592286" y="1524000"/>
+          <a:ext cx="1219200" cy="1883229"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>119743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>555171</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>174171</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7347857" y="2786743"/>
+          <a:ext cx="4180114" cy="1012371"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1419,392 +1627,441 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:X36"/>
+  <dimension ref="B1:Z36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:S5"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E2" s="26" t="s">
+    <row r="1" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="37"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="37"/>
+      <c r="X2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y2" s="10"/>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="12"/>
+      <c r="Q3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="12"/>
+      <c r="X3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y3" s="12"/>
+    </row>
+    <row r="4" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E4" s="30"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="28"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="14"/>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="34"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="34"/>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E6" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
+      <c r="Q6" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="28"/>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E7" s="30"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="28"/>
+    </row>
+    <row r="8" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E8" s="13"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="14"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="14"/>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="P10" t="s">
+        <v>20</v>
+      </c>
+      <c r="U10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="10"/>
+      <c r="I12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="10"/>
+      <c r="P12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q12" s="10"/>
+      <c r="T12" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
+      <c r="Y12" s="36"/>
+      <c r="Z12" s="37"/>
+    </row>
+    <row r="13" spans="2:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="12"/>
+      <c r="I13" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="12"/>
+      <c r="P13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="12"/>
+      <c r="T13" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="U13" s="38"/>
+      <c r="V13" s="38"/>
+      <c r="W13" s="38"/>
+      <c r="X13" s="38"/>
+      <c r="Y13" s="38"/>
+      <c r="Z13" s="39"/>
+    </row>
+    <row r="14" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="30"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="28"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="14"/>
+      <c r="T14" s="40"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="42"/>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B15" s="30"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="28"/>
+      <c r="T15" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+      <c r="W15" s="44"/>
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="45"/>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="B16" s="30"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="28"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+      <c r="W16" s="46"/>
+      <c r="X16" s="46"/>
+      <c r="Y16" s="46"/>
+      <c r="Z16" s="47"/>
+    </row>
+    <row r="17" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="30"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="14"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="47"/>
+    </row>
+    <row r="18" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="30"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="46"/>
+      <c r="W18" s="46"/>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="46"/>
+      <c r="Z18" s="47"/>
+    </row>
+    <row r="19" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="I19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="10"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="49"/>
+      <c r="Z19" s="50"/>
+    </row>
+    <row r="20" spans="2:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="57"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="5"/>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="I21" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="54"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+    </row>
+    <row r="22" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I22" s="13"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="14"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+    </row>
+    <row r="24" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+    </row>
+    <row r="25" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E25" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="2:26" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E26" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="12"/>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E27" s="26"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="28"/>
+    </row>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E28" s="26"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="28"/>
+    </row>
+    <row r="29" spans="2:26" x14ac:dyDescent="0.3">
+      <c r="E29" s="26"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28"/>
+    </row>
+    <row r="30" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E30" s="13"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" spans="2:26" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="E33" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="51"/>
+      <c r="I33" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="28"/>
-      <c r="V2" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="W2" s="22"/>
-    </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="E3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="23"/>
-      <c r="P3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="23"/>
-      <c r="V3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="W3" s="23"/>
-    </row>
-    <row r="4" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E4" s="31"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="30"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="30"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="25"/>
-    </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="36"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="36"/>
-    </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="E6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
-      <c r="P6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="30"/>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="E7" s="31"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="30"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="30"/>
-    </row>
-    <row r="8" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="24"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="25"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="25"/>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="O10" t="s">
-        <v>29</v>
-      </c>
-      <c r="T10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="22"/>
-      <c r="H12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="22"/>
-      <c r="O12" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="P12" s="22"/>
-      <c r="S12" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="28"/>
-    </row>
-    <row r="13" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="23"/>
-      <c r="H13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="23"/>
-      <c r="O13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="P13" s="23"/>
-      <c r="S13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="8"/>
-    </row>
-    <row r="14" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="31"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="30"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="25"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="11"/>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B15" s="31"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="30"/>
-      <c r="S15" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-      <c r="X15" s="14"/>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B16" s="31"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="30"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="17"/>
-    </row>
-    <row r="17" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="31"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="25"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="17"/>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B18" s="31"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
-      <c r="X18" s="17"/>
-    </row>
-    <row r="19" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
-      <c r="W19" s="19"/>
-      <c r="X19" s="20"/>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M20" s="4"/>
-      <c r="N20" s="5"/>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-    </row>
-    <row r="25" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E25" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="F25" s="50"/>
-      <c r="G25" s="22"/>
-    </row>
-    <row r="26" spans="2:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="23"/>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="E27" s="15"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="30"/>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="E28" s="15"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="30"/>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="E29" s="15"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="30"/>
-    </row>
-    <row r="30" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E30" s="24"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="25"/>
-    </row>
-    <row r="31" spans="2:24" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="M31" s="1"/>
-    </row>
-    <row r="32" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="21" t="s">
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="2:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="E34" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="16"/>
+      <c r="G34" s="52"/>
+      <c r="I34" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="E33" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="22"/>
-      <c r="H33" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="22"/>
-    </row>
-    <row r="34" spans="2:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="41"/>
-      <c r="E34" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="F34" s="41"/>
-      <c r="H34" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="I34" s="45"/>
-    </row>
-    <row r="35" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="42"/>
-      <c r="C35" s="43"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="43"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="47"/>
-    </row>
-    <row r="36" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H36" s="48"/>
-      <c r="I36" s="49"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="52"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="22"/>
+    </row>
+    <row r="36" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I36" s="23"/>
+      <c r="J36" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="29">
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L22"/>
+    <mergeCell ref="T13:Z14"/>
+    <mergeCell ref="T15:Z19"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="X3:Y4"/>
+    <mergeCell ref="T12:Z12"/>
+    <mergeCell ref="E6:I8"/>
+    <mergeCell ref="E3:I5"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="Q3:T5"/>
+    <mergeCell ref="Q6:T8"/>
+    <mergeCell ref="E2:I2"/>
     <mergeCell ref="B19:D19"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O13:P14"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="P13:Q14"/>
     <mergeCell ref="E34:F35"/>
     <mergeCell ref="B34:C35"/>
-    <mergeCell ref="H34:I36"/>
-    <mergeCell ref="E26:G30"/>
+    <mergeCell ref="I34:J36"/>
+    <mergeCell ref="E26:H30"/>
     <mergeCell ref="B13:D18"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E25:H25"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K17"/>
-    <mergeCell ref="E6:H8"/>
-    <mergeCell ref="E3:H5"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="P3:S5"/>
-    <mergeCell ref="P6:S8"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="S13:X14"/>
-    <mergeCell ref="S15:X19"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="V3:W4"/>
-    <mergeCell ref="S12:X12"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L17"/>
+    <mergeCell ref="I19:L19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Probleemstelling/Programma/Klassen.xlsx
+++ b/Probleemstelling/Programma/Klassen.xlsx
@@ -17,7 +17,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>string fileName</t>
+  </si>
+  <si>
+    <t>main()
+WriteTree()</t>
+  </si>
   <si>
     <t>Tree</t>
   </si>
@@ -56,10 +66,10 @@
     <t>Prune()</t>
   </si>
   <si>
-    <t>           Start()         TimeIsUp()</t>
-  </si>
-  <si>
-    <t>     evaluate()</t>
+    <t>Start()         TimeIsUp()</t>
+  </si>
+  <si>
+    <t>evaluate()</t>
   </si>
   <si>
     <t>Grammar</t>
@@ -222,6 +232,13 @@
       <left style="medium"/>
       <right style="medium"/>
       <top style="medium"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="medium"/>
+      <right style="medium"/>
+      <top/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
@@ -229,13 +246,6 @@
       <left style="medium"/>
       <right style="medium"/>
       <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top/>
       <bottom style="medium"/>
       <diagonal/>
     </border>
@@ -281,20 +291,20 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -317,7 +327,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -337,7 +347,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -345,7 +355,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -426,15 +436,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>308160</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>6120</xdr:rowOff>
+      <xdr:colOff>533520</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>148320</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>620280</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>127800</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>84960</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -443,8 +453,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1833120" y="1499400"/>
-          <a:ext cx="2600280" cy="487440"/>
+          <a:off x="2058480" y="2655000"/>
+          <a:ext cx="2602080" cy="559080"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -454,7 +464,6 @@
           <a:solidFill>
             <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
-          <a:round/>
           <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
@@ -476,15 +485,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>606240</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>6120</xdr:rowOff>
+      <xdr:colOff>661320</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>151200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>26640</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>135360</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>734760</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -493,8 +502,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4419360" y="1499400"/>
-          <a:ext cx="3233520" cy="495000"/>
+          <a:off x="4474440" y="2840760"/>
+          <a:ext cx="3123720" cy="478080"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -504,7 +513,6 @@
           <a:solidFill>
             <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
-          <a:round/>
           <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
@@ -526,15 +534,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>316440</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:colOff>344160</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>36000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>300960</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>127800</xdr:rowOff>
+      <xdr:colOff>327600</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -543,8 +551,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1841400" y="3579840"/>
-          <a:ext cx="2272680" cy="837720"/>
+          <a:off x="1869120" y="4973400"/>
+          <a:ext cx="2271600" cy="837360"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -554,7 +562,6 @@
           <a:solidFill>
             <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
-          <a:round/>
           <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
@@ -576,15 +583,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>597960</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>173880</xdr:rowOff>
+      <xdr:colOff>624960</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>193680</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>158400</xdr:rowOff>
+      <xdr:colOff>220320</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>164880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -593,8 +600,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1360440" y="5576400"/>
-          <a:ext cx="2646360" cy="396000"/>
+          <a:off x="1387440" y="6969960"/>
+          <a:ext cx="2646000" cy="395640"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -604,7 +611,6 @@
           <a:solidFill>
             <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
-          <a:round/>
           <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
@@ -626,15 +632,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>187200</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>173880</xdr:rowOff>
+      <xdr:colOff>214200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>187560</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>135360</xdr:rowOff>
+      <xdr:colOff>214560</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -643,8 +649,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4000320" y="5576400"/>
-          <a:ext cx="360" cy="372960"/>
+          <a:off x="4027320" y="6969960"/>
+          <a:ext cx="360" cy="372600"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -654,7 +660,6 @@
           <a:solidFill>
             <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
-          <a:round/>
           <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
@@ -676,15 +681,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>194760</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
+      <xdr:colOff>221760</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>5400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>26640</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>127800</xdr:rowOff>
+      <xdr:colOff>54000</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>134280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -693,8 +698,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4007880" y="5591520"/>
-          <a:ext cx="2882160" cy="350280"/>
+          <a:off x="4034880" y="6794640"/>
+          <a:ext cx="2882520" cy="540360"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -704,7 +709,153 @@
           <a:solidFill>
             <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
-          <a:round/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>-19162080</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>-91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>-16875000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>109440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="-19162080" y="-91440"/>
+          <a:ext cx="2287080" cy="375840"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>96840</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>172080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>640440</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>127800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7723080" y="2313000"/>
+          <a:ext cx="4356720" cy="5015520"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>119160</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>8640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>412200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>138600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12321000" y="2698200"/>
+          <a:ext cx="293040" cy="686160"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
           <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
@@ -726,25 +877,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>625680</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>110160</xdr:rowOff>
+      <xdr:colOff>467640</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>188280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>625320</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>120600</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>446040</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>138600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CustomShape 1"/>
+        <xdr:cNvPr id="9" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="15115680" y="491040"/>
-          <a:ext cx="2287440" cy="10440"/>
+        <a:xfrm>
+          <a:off x="14957640" y="2877840"/>
+          <a:ext cx="740880" cy="506520"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -754,7 +905,6 @@
           <a:solidFill>
             <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
-          <a:round/>
           <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
@@ -775,166 +925,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>69840</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>165240</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>-12123720</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>-7004160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>613800</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>121320</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7696080" y="919440"/>
-          <a:ext cx="4357080" cy="5015880"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>384840</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="12293280" y="1495080"/>
-          <a:ext cx="293400" cy="496080"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>244800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>549360</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>153720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="12446640" y="1495080"/>
-          <a:ext cx="304560" cy="517680"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>440640</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>418680</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>-5522400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>-3616920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -942,58 +942,8 @@
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14930640" y="1484280"/>
-          <a:ext cx="740520" cy="506880"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:round/>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>527400</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>33480</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7653240" y="2841120"/>
+          <a:off x="-12123720" y="-7004160"/>
           <a:ext cx="6601320" cy="3387240"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -1004,7 +954,6 @@
           <a:solidFill>
             <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
-          <a:round/>
           <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
@@ -1026,25 +975,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>200520</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:colOff>228240</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>341640</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>99360</xdr:rowOff>
+      <xdr:colOff>369000</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>105480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="CustomShape 1"/>
+        <xdr:cNvPr id="11" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4776120" y="4119480"/>
-          <a:ext cx="2428920" cy="269640"/>
+          <a:off x="4803840" y="5513040"/>
+          <a:ext cx="2428560" cy="269280"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1054,7 +1003,6 @@
           <a:solidFill>
             <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
-          <a:round/>
           <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
@@ -1076,25 +1024,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>571320</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:colOff>654480</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>570960</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>164880</xdr:rowOff>
+      <xdr:colOff>653760</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>144360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="CustomShape 1"/>
+        <xdr:cNvPr id="12" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4384440" y="1484280"/>
-          <a:ext cx="1524960" cy="1850400"/>
+          <a:off x="4467600" y="2850840"/>
+          <a:ext cx="1524600" cy="1850040"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1104,7 +1052,6 @@
           <a:solidFill>
             <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
-          <a:round/>
           <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
@@ -1126,25 +1073,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>59760</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
+      <xdr:colOff>86040</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>117720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>581760</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>164880</xdr:rowOff>
+      <xdr:colOff>608400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="CustomShape 1"/>
+        <xdr:cNvPr id="13" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9211320" y="2724480"/>
-          <a:ext cx="5097600" cy="991080"/>
+          <a:off x="9237600" y="4118040"/>
+          <a:ext cx="5097960" cy="990720"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1154,7 +1101,55 @@
           <a:solidFill>
             <a:srgbClr val="4a7ebb"/>
           </a:solidFill>
-          <a:round/>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>338760</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>124200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>395640</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>64080</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4914360" y="1175400"/>
+          <a:ext cx="56880" cy="290520"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="4a7ebb"/>
+          </a:solidFill>
           <a:tailEnd len="med" type="triangle" w="med"/>
         </a:ln>
       </xdr:spPr>
@@ -1181,10 +1176,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:Z36"/>
+  <dimension ref="B1:Z47"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T24" activeCellId="0" sqref="T24"/>
+      <selection pane="topLeft" activeCell="R37" activeCellId="0" sqref="R37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1192,433 +1187,503 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.5748987854251"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E2" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="1" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="X2" s="3" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="Y2" s="3"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E3" s="4" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="Q3" s="4" t="s">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="X3" s="5" t="s">
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="X10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Y3" s="5"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E6" s="6" t="s">
+      <c r="Y10" s="5"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="Q6" s="6" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="Q11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="0" t="s">
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="X11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="Y11" s="6"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E14" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P10" s="0" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U10" s="0" t="s">
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E17" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="3" t="s">
+      <c r="I17" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="I12" s="3" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="P18" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="P12" s="3" t="s">
+      <c r="U18" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="Q12" s="3"/>
-      <c r="T12" s="1" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="7" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="I20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="I13" s="5" t="s">
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="P20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="P13" s="5" t="s">
+      <c r="Q20" s="5"/>
+      <c r="T20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Q13" s="5"/>
-      <c r="T13" s="4" t="s">
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="T15" s="8" t="s">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="I21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="T18" s="8"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="8"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="9" t="s">
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="P21" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="I19" s="3" t="s">
+      <c r="Q21" s="6"/>
+      <c r="T21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="T19" s="8"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="8"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="10" t="s">
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="T23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+    </row>
+    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="13"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="I21" s="8" t="s">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="I27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-    </row>
-    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E25" s="3" t="s">
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+    </row>
+    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E26" s="5" t="s">
+      <c r="I28" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="13"/>
+    </row>
+    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I29" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N31" s="14"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+    </row>
+    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+    </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="3"/>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="15"/>
-      <c r="I33" s="3" t="s">
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E34" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J33" s="3"/>
-    </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="16" t="s">
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+    </row>
+    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+    </row>
+    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+    </row>
+    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+    </row>
+    <row r="39" customFormat="false" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N39" s="14"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="E34" s="16" t="s">
+      <c r="C41" s="5"/>
+      <c r="E41" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="17"/>
-      <c r="I34" s="18" t="s">
+      <c r="F41" s="5"/>
+      <c r="G41" s="15"/>
+      <c r="I41" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J34" s="18"/>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="17"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-    </row>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B42" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="16"/>
+      <c r="E42" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F42" s="16"/>
+      <c r="G42" s="17"/>
+      <c r="I42" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="J42" s="18"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="17"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="E2:I2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="E3:I5"/>
-    <mergeCell ref="Q3:T5"/>
-    <mergeCell ref="X3:Y4"/>
-    <mergeCell ref="E6:I8"/>
-    <mergeCell ref="Q6:T8"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="T12:Z12"/>
-    <mergeCell ref="B13:D18"/>
-    <mergeCell ref="I13:L17"/>
-    <mergeCell ref="P13:Q14"/>
-    <mergeCell ref="T13:Z14"/>
-    <mergeCell ref="T15:Z19"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="I19:L19"/>
+  <mergeCells count="32">
+    <mergeCell ref="E1:I1"/>
+    <mergeCell ref="E2:I4"/>
+    <mergeCell ref="E5:I7"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="Q10:T10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="E11:I13"/>
+    <mergeCell ref="Q11:T13"/>
+    <mergeCell ref="X11:Y12"/>
+    <mergeCell ref="E14:I16"/>
+    <mergeCell ref="Q14:T16"/>
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L22"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="E26:H30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="B34:C35"/>
-    <mergeCell ref="E34:F35"/>
-    <mergeCell ref="I34:J36"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="T20:Z20"/>
+    <mergeCell ref="B21:D26"/>
+    <mergeCell ref="I21:L25"/>
+    <mergeCell ref="P21:Q22"/>
+    <mergeCell ref="T21:Z22"/>
+    <mergeCell ref="T23:Z27"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I29:L30"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="E34:H38"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="B42:C43"/>
+    <mergeCell ref="E42:F43"/>
+    <mergeCell ref="I42:J44"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
